--- a/Study Timesheet.xlsx
+++ b/Study Timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="140" windowWidth="38340" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="2760" yWindow="1640" windowWidth="43700" windowHeight="20600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>WEEK 1 (2/5 - 2/11)</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>WEEK 3 (2/19 - 2/25)</t>
+  </si>
+  <si>
+    <t>WEEK 4 (2/26 - 3/4)</t>
+  </si>
+  <si>
+    <t>WEEK 5 (3/5 - 3/11)</t>
+  </si>
+  <si>
+    <t>WEEK 6 (3/12 - 3/18)</t>
   </si>
 </sst>
 </file>
@@ -457,7 +469,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -555,48 +567,119 @@
         <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1">
         <f>SUM(B3:H3)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUM(B4:H4)</f>
+        <v>11.5</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SUM(B5:H5)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <f>SUM(B6:H6)</f>
+        <v>20.5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
+      <c r="I7" s="1">
+        <f>SUM(B7:H7)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="25">
       <c r="A8" s="1"/>
@@ -679,7 +762,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="25">
+    <row r="17" spans="1:9" ht="25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -688,7 +771,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="25">
+    <row r="18" spans="1:9" ht="25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -697,7 +780,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="25">
+    <row r="19" spans="1:9" ht="25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -706,7 +789,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="25">
+    <row r="20" spans="1:9" ht="25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -715,7 +798,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="25">
+    <row r="21" spans="1:9" ht="25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -724,7 +807,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="25">
+    <row r="22" spans="1:9" ht="25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -733,7 +816,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="25">
+    <row r="23" spans="1:9" ht="25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -742,7 +825,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="25">
+    <row r="24" spans="1:9" ht="25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -751,7 +834,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="25">
+    <row r="25" spans="1:9" ht="25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -759,8 +842,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="25">
+      <c r="I25">
+        <f>SUM(I2:I24)</f>
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -769,7 +856,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="25">
+    <row r="27" spans="1:9" ht="25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -778,7 +865,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="25">
+    <row r="28" spans="1:9" ht="25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -787,7 +874,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="25">
+    <row r="29" spans="1:9" ht="25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -796,7 +883,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="25">
+    <row r="30" spans="1:9" ht="25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -805,7 +892,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="25">
+    <row r="31" spans="1:9" ht="25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -814,7 +901,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="25">
+    <row r="32" spans="1:9" ht="25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>

--- a/Study Timesheet.xlsx
+++ b/Study Timesheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1640" windowWidth="43700" windowHeight="20600" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1780" windowWidth="35520" windowHeight="17900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>WEEK 1 (2/5 - 2/11)</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>WEEK 6 (3/12 - 3/18)</t>
+  </si>
+  <si>
+    <t>WEEK 7(3/19 - 3/25)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -540,7 +543,7 @@
         <v>7.75</v>
       </c>
       <c r="I2" s="1">
-        <f>SUM(B2:H2)</f>
+        <f t="shared" ref="I2:I7" si="0">SUM(B2:H2)</f>
         <v>9.75</v>
       </c>
     </row>
@@ -570,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="1">
-        <f>SUM(B3:H3)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -600,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>SUM(B4:H4)</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
     </row>
@@ -630,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <f>SUM(B5:H5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -660,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1">
-        <f>SUM(B6:H6)</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
@@ -671,24 +674,53 @@
       <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
       <c r="I7" s="1">
-        <f>SUM(B7:H7)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
       <c r="G8" s="1"/>
+      <c r="I8" s="1">
+        <f>SUM(B8:H8)</f>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="25">
       <c r="A9" s="1"/>
@@ -844,7 +876,7 @@
       <c r="G25" s="1"/>
       <c r="I25">
         <f>SUM(I2:I24)</f>
-        <v>75.75</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="25">

--- a/Study Timesheet.xlsx
+++ b/Study Timesheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>WEEK 1 (2/5 - 2/11)</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>WEEK 7(3/19 - 3/25)</t>
+  </si>
+  <si>
+    <t>WEEK 8 (3/26 - 4/01)</t>
+  </si>
+  <si>
+    <t>WEEK 9 (4/02 -4/08 )</t>
+  </si>
+  <si>
+    <t>Lesson</t>
+  </si>
+  <si>
+    <t>Lesson Name</t>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>101 Exercises</t>
   </si>
 </sst>
 </file>
@@ -472,7 +490,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -716,35 +734,67 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8</v>
+      </c>
       <c r="I8" s="1">
         <f>SUM(B8:H8)</f>
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <f>SUM(B9:H9)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="I10" s="1">
+        <f>SUM(B10:H10)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -831,10 +881,18 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -876,7 +934,7 @@
       <c r="G25" s="1"/>
       <c r="I25">
         <f>SUM(I2:I24)</f>
-        <v>100.25</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="25">
